--- a/data/odwells.xlsx
+++ b/data/odwells.xlsx
@@ -414,7 +414,7 @@
         </is>
       </c>
       <c r="E2">
-        <v>0.05202000000000007</v>
+        <v>0.05202000000000003</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="E4">
-        <v>0.08932000000000002</v>
+        <v>0.08931999999999995</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         </is>
       </c>
       <c r="E10">
-        <v>0.03601833333333334</v>
+        <v>0.03601833333333333</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         </is>
       </c>
       <c r="E14">
-        <v>0.006638888888888898</v>
+        <v>0.006638888888888897</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
         </is>
       </c>
       <c r="E21">
-        <v>0.2245666666666667</v>
+        <v>0.2245666666666666</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1074,7 +1074,7 @@
         </is>
       </c>
       <c r="E22">
-        <v>0.06827666666666672</v>
+        <v>0.06827666666666669</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="E28">
-        <v>0.01646500000000002</v>
+        <v>0.01646500000000003</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         </is>
       </c>
       <c r="E37">
-        <v>0.01425833333333334</v>
+        <v>0.01425833333333333</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
         </is>
       </c>
       <c r="E40">
-        <v>0.06921333333333339</v>
+        <v>0.06921333333333331</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         </is>
       </c>
       <c r="E55">
-        <v>0.009785000000000007</v>
+        <v>0.009785000000000005</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         </is>
       </c>
       <c r="E59">
-        <v>0.0009611111111111162</v>
+        <v>0.0009611111111111164</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="E65">
-        <v>0.04927666666666671</v>
+        <v>0.04927666666666664</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
         </is>
       </c>
       <c r="E67">
-        <v>0.06742000000000008</v>
+        <v>0.06742000000000004</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="E68">
-        <v>0.00351444444444445</v>
+        <v>0.003514444444444449</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -2856,7 +2856,7 @@
         </is>
       </c>
       <c r="E76">
-        <v>0.06773333333333338</v>
+        <v>0.06773333333333331</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         </is>
       </c>
       <c r="E77">
-        <v>0.00721444444444445</v>
+        <v>0.007214444444444449</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -2922,7 +2922,7 @@
         </is>
       </c>
       <c r="E78">
-        <v>0.1327433333333334</v>
+        <v>0.1327433333333333</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         </is>
       </c>
       <c r="E82">
-        <v>0.004488333333333354</v>
+        <v>0.004488333333333353</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         </is>
       </c>
       <c r="E83">
-        <v>0.07105666666666673</v>
+        <v>0.0710566666666667</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="E86">
-        <v>0.007262222222222244</v>
+        <v>0.007262222222222245</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -3219,7 +3219,7 @@
         </is>
       </c>
       <c r="E87">
-        <v>0.1515766666666667</v>
+        <v>0.1515766666666666</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         </is>
       </c>
       <c r="E92">
-        <v>0.08166000000000007</v>
+        <v>0.08166000000000002</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -3516,7 +3516,7 @@
         </is>
       </c>
       <c r="E96">
-        <v>0.1621600000000001</v>
+        <v>0.16216</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         </is>
       </c>
       <c r="E99">
-        <v>0.3048650000000001</v>
+        <v>0.304865</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         </is>
       </c>
       <c r="E100">
-        <v>0.002861666666666688</v>
+        <v>0.002861666666666689</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         </is>
       </c>
       <c r="E101">
-        <v>0.09137333333333338</v>
+        <v>0.09137333333333335</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -3714,7 +3714,7 @@
         </is>
       </c>
       <c r="E102">
-        <v>0.3259900000000001</v>
+        <v>0.3259900000000002</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         </is>
       </c>
       <c r="E103">
-        <v>0.06456000000000006</v>
+        <v>0.06456000000000002</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -4044,7 +4044,7 @@
         </is>
       </c>
       <c r="E112">
-        <v>0.06678333333333338</v>
+        <v>0.06678333333333335</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         </is>
       </c>
       <c r="E121">
-        <v>0.06670666666666673</v>
+        <v>0.06670666666666669</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         </is>
       </c>
       <c r="E127">
-        <v>0.0008283333333333568</v>
+        <v>0.0008283333333333569</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -4836,7 +4836,7 @@
         </is>
       </c>
       <c r="E136">
-        <v>2.833333333333391e-05</v>
+        <v>2.833333333333391E-05</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
         </is>
       </c>
       <c r="E141">
-        <v>0.2426966666666667</v>
+        <v>0.2426966666666666</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         </is>
       </c>
       <c r="E146">
-        <v>0.1366200000000001</v>
+        <v>0.13662</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         </is>
       </c>
       <c r="E155">
-        <v>0.1456200000000001</v>
+        <v>0.14562</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
         </is>
       </c>
       <c r="E168">
-        <v>0.27901</v>
+        <v>0.2790099999999999</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -6123,7 +6123,7 @@
         </is>
       </c>
       <c r="E175">
-        <v>0.1093833333333334</v>
+        <v>0.1093833333333333</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         </is>
       </c>
       <c r="E196">
-        <v>0.005701111111111119</v>
+        <v>0.00570111111111112</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         </is>
       </c>
       <c r="E198">
-        <v>0.4461916666666667</v>
+        <v>0.4461916666666666</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
@@ -6948,7 +6948,7 @@
         </is>
       </c>
       <c r="E200">
-        <v>0.2450866666666667</v>
+        <v>0.2450866666666669</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="E209">
-        <v>0.2693533333333334</v>
+        <v>0.2693533333333335</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         </is>
       </c>
       <c r="E220">
-        <v>0.2482833333333334</v>
+        <v>0.2482833333333335</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         </is>
       </c>
       <c r="E221">
-        <v>0.1917133333333334</v>
+        <v>0.1917133333333333</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         </is>
       </c>
       <c r="E222">
-        <v>0.3254133333333334</v>
+        <v>0.3254133333333333</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         </is>
       </c>
       <c r="E224">
-        <v>0.3319050000000001</v>
+        <v>0.331905</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
@@ -7938,7 +7938,7 @@
         </is>
       </c>
       <c r="E230">
-        <v>0.2156133333333333</v>
+        <v>0.2156133333333332</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="E233">
-        <v>0.3416883333333334</v>
+        <v>0.3416883333333333</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
@@ -8235,7 +8235,7 @@
         </is>
       </c>
       <c r="E239">
-        <v>0.2315966666666667</v>
+        <v>0.2315966666666666</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
@@ -8631,7 +8631,7 @@
         </is>
       </c>
       <c r="E251">
-        <v>0.3561983333333334</v>
+        <v>0.3561983333333333</v>
       </c>
       <c r="F251" t="inlineStr">
         <is>
@@ -8664,7 +8664,7 @@
         </is>
       </c>
       <c r="E252">
-        <v>0.4787316666666667</v>
+        <v>0.4787316666666668</v>
       </c>
       <c r="F252" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         </is>
       </c>
       <c r="E258">
-        <v>0.34332</v>
+        <v>0.3433199999999999</v>
       </c>
       <c r="F258" t="inlineStr">
         <is>
@@ -8895,7 +8895,7 @@
         </is>
       </c>
       <c r="E259">
-        <v>0.16965</v>
+        <v>0.1696499999999999</v>
       </c>
       <c r="F259" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         </is>
       </c>
       <c r="E266">
-        <v>0.26815</v>
+        <v>0.2681499999999999</v>
       </c>
       <c r="F266" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         </is>
       </c>
       <c r="E269">
-        <v>0.3683750000000001</v>
+        <v>0.368375</v>
       </c>
       <c r="F269" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         </is>
       </c>
       <c r="E286">
-        <v>0.1967133333333334</v>
+        <v>0.1967133333333333</v>
       </c>
       <c r="F286" t="inlineStr">
         <is>
@@ -9819,7 +9819,7 @@
         </is>
       </c>
       <c r="E287">
-        <v>0.378885</v>
+        <v>0.3788850000000001</v>
       </c>
       <c r="F287" t="inlineStr">
         <is>
@@ -9852,7 +9852,7 @@
         </is>
       </c>
       <c r="E288">
-        <v>0.4968783333333334</v>
+        <v>0.4968783333333335</v>
       </c>
       <c r="F288" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         </is>
       </c>
       <c r="E293">
-        <v>0.2961633333333334</v>
+        <v>0.2961633333333333</v>
       </c>
       <c r="F293" t="inlineStr">
         <is>
@@ -10116,7 +10116,7 @@
         </is>
       </c>
       <c r="E296">
-        <v>0.3850816666666667</v>
+        <v>0.3850816666666668</v>
       </c>
       <c r="F296" t="inlineStr">
         <is>
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E306">
-        <v>0.4983016666666667</v>
+        <v>0.4983016666666668</v>
       </c>
       <c r="F306" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         </is>
       </c>
       <c r="E312">
-        <v>0.3705633333333334</v>
+        <v>0.3705633333333333</v>
       </c>
       <c r="F312" t="inlineStr">
         <is>
@@ -10710,7 +10710,7 @@
         </is>
       </c>
       <c r="E314">
-        <v>0.393705</v>
+        <v>0.3937050000000001</v>
       </c>
       <c r="F314" t="inlineStr">
         <is>
@@ -10941,7 +10941,7 @@
         </is>
       </c>
       <c r="E321">
-        <v>0.3748666666666667</v>
+        <v>0.3748666666666668</v>
       </c>
       <c r="F321" t="inlineStr">
         <is>
@@ -11865,7 +11865,7 @@
         </is>
       </c>
       <c r="E349">
-        <v>0.2290633333333334</v>
+        <v>0.2290633333333333</v>
       </c>
       <c r="F349" t="inlineStr">
         <is>
@@ -12228,7 +12228,7 @@
         </is>
       </c>
       <c r="E360">
-        <v>0.5122183333333333</v>
+        <v>0.5122183333333334</v>
       </c>
       <c r="F360" t="inlineStr">
         <is>
@@ -12459,7 +12459,7 @@
         </is>
       </c>
       <c r="E367">
-        <v>0.2382966666666667</v>
+        <v>0.2382966666666666</v>
       </c>
       <c r="F367" t="inlineStr">
         <is>
@@ -12855,7 +12855,7 @@
         </is>
       </c>
       <c r="E379">
-        <v>0.003971666666666669</v>
+        <v>0.00397166666666667</v>
       </c>
       <c r="F379" t="inlineStr">
         <is>
@@ -13020,7 +13020,7 @@
         </is>
       </c>
       <c r="E384">
-        <v>0.3960833333333334</v>
+        <v>0.3960833333333335</v>
       </c>
       <c r="F384" t="inlineStr">
         <is>
@@ -13152,7 +13152,7 @@
         </is>
       </c>
       <c r="E388">
-        <v>0.006418333333333341</v>
+        <v>0.00641833333333334</v>
       </c>
       <c r="F388" t="inlineStr">
         <is>
@@ -13350,7 +13350,7 @@
         </is>
       </c>
       <c r="E394">
-        <v>0.2520033333333334</v>
+        <v>0.2520033333333333</v>
       </c>
       <c r="F394" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="E401">
-        <v>0.3755533333333334</v>
+        <v>0.3755533333333335</v>
       </c>
       <c r="F401" t="inlineStr">
         <is>
@@ -13680,7 +13680,7 @@
         </is>
       </c>
       <c r="E404">
-        <v>0.4399883333333334</v>
+        <v>0.4399883333333335</v>
       </c>
       <c r="F404" t="inlineStr">
         <is>
@@ -13878,7 +13878,7 @@
         </is>
       </c>
       <c r="E410">
-        <v>0.37813</v>
+        <v>0.3781300000000001</v>
       </c>
       <c r="F410" t="inlineStr">
         <is>
@@ -14868,7 +14868,7 @@
         </is>
       </c>
       <c r="E440">
-        <v>0.4514616666666667</v>
+        <v>0.4514616666666668</v>
       </c>
       <c r="F440" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         </is>
       </c>
       <c r="E458">
-        <v>0.456735</v>
+        <v>0.4567350000000001</v>
       </c>
       <c r="F458" t="inlineStr">
         <is>
@@ -15726,7 +15726,7 @@
         </is>
       </c>
       <c r="E466">
-        <v>0.2668633333333334</v>
+        <v>0.2668633333333333</v>
       </c>
       <c r="F466" t="inlineStr">
         <is>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="E473">
-        <v>0.4102366666666667</v>
+        <v>0.4102366666666668</v>
       </c>
       <c r="F473" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         </is>
       </c>
       <c r="E475">
-        <v>0.2727466666666667</v>
+        <v>0.2727466666666666</v>
       </c>
       <c r="F475" t="inlineStr">
         <is>
@@ -16254,7 +16254,7 @@
         </is>
       </c>
       <c r="E482">
-        <v>0.4178466666666666</v>
+        <v>0.4178466666666668</v>
       </c>
       <c r="F482" t="inlineStr">
         <is>
@@ -16320,7 +16320,7 @@
         </is>
       </c>
       <c r="E484">
-        <v>0.2710533333333334</v>
+        <v>0.2710533333333333</v>
       </c>
       <c r="F484" t="inlineStr">
         <is>
@@ -16617,7 +16617,7 @@
         </is>
       </c>
       <c r="E493">
-        <v>0.2762533333333334</v>
+        <v>0.2762533333333333</v>
       </c>
       <c r="F493" t="inlineStr">
         <is>
@@ -16848,7 +16848,7 @@
         </is>
       </c>
       <c r="E500">
-        <v>0.4201466666666667</v>
+        <v>0.4201466666666668</v>
       </c>
       <c r="F500" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         </is>
       </c>
       <c r="E505">
-        <v>0.2780516666666667</v>
+        <v>0.2780516666666666</v>
       </c>
       <c r="F505" t="inlineStr">
         <is>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="E521">
-        <v>0.4684616666666667</v>
+        <v>0.4684616666666668</v>
       </c>
       <c r="F521" t="inlineStr">
         <is>
@@ -17607,7 +17607,7 @@
         </is>
       </c>
       <c r="E523">
-        <v>0.311785</v>
+        <v>0.3117849999999999</v>
       </c>
       <c r="F523" t="inlineStr">
         <is>
@@ -18036,7 +18036,7 @@
         </is>
       </c>
       <c r="E536">
-        <v>0.43758</v>
+        <v>0.4375800000000001</v>
       </c>
       <c r="F536" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         </is>
       </c>
       <c r="E538">
-        <v>0.2908466666666667</v>
+        <v>0.2908466666666666</v>
       </c>
       <c r="F538" t="inlineStr">
         <is>
@@ -18960,7 +18960,7 @@
         </is>
       </c>
       <c r="E564">
-        <v>0.4471533333333333</v>
+        <v>0.4471533333333335</v>
       </c>
       <c r="F564" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
         </is>
       </c>
       <c r="E566">
-        <v>0.4780816666666667</v>
+        <v>0.4780816666666668</v>
       </c>
       <c r="F566" t="inlineStr">
         <is>
@@ -19092,7 +19092,7 @@
         </is>
       </c>
       <c r="E568">
-        <v>0.3732516666666667</v>
+        <v>0.3732516666666666</v>
       </c>
       <c r="F568" t="inlineStr">
         <is>
@@ -19356,7 +19356,7 @@
         </is>
       </c>
       <c r="E576">
-        <v>0.5368683333333334</v>
+        <v>0.5368683333333335</v>
       </c>
       <c r="F576" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         </is>
       </c>
       <c r="E583">
-        <v>0.3043866666666667</v>
+        <v>0.3043866666666666</v>
       </c>
       <c r="F583" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         </is>
       </c>
       <c r="E619">
-        <v>0.3086166666666667</v>
+        <v>0.3086166666666668</v>
       </c>
       <c r="F619" t="inlineStr">
         <is>
@@ -21039,7 +21039,7 @@
         </is>
       </c>
       <c r="E627">
-        <v>0.4588966666666667</v>
+        <v>0.4588966666666668</v>
       </c>
       <c r="F627" t="inlineStr">
         <is>
@@ -21072,7 +21072,7 @@
         </is>
       </c>
       <c r="E628">
-        <v>0.3094133333333334</v>
+        <v>0.3094133333333333</v>
       </c>
       <c r="F628" t="inlineStr">
         <is>
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E631">
-        <v>0.4230383333333334</v>
+        <v>0.4230383333333333</v>
       </c>
       <c r="F631" t="inlineStr">
         <is>
@@ -21930,7 +21930,7 @@
         </is>
       </c>
       <c r="E654">
-        <v>0.46236</v>
+        <v>0.4623600000000002</v>
       </c>
       <c r="F654" t="inlineStr">
         <is>
